--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/574625CD512ED7E4/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1077FD2-027D-48E1-978C-45409D650398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D3F5BF-FE90-4800-847C-F54DC2A94075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
     <sheet name="transactions" sheetId="2" r:id="rId2"/>
+    <sheet name="stock_log" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4108,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
     </sheetView>
@@ -13910,4 +13911,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8779E6-B3DA-4020-973C-CBFC688469A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>